--- a/reports/Mozambique_3.2_imports_products_HS-AG6-2003-2023.xlsx
+++ b/reports/Mozambique_3.2_imports_products_HS-AG6-2003-2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="67">
   <si>
     <t>refYear</t>
   </si>
@@ -22,157 +22,193 @@
     <t>flowCode</t>
   </si>
   <si>
+    <t>product_rank</t>
+  </si>
+  <si>
     <t>cmdCode</t>
   </si>
   <si>
     <t>cmdDesc</t>
   </si>
   <si>
+    <t>product_sum</t>
+  </si>
+  <si>
+    <t>product_upper_perc</t>
+  </si>
+  <si>
     <t>classificationCode</t>
   </si>
   <si>
     <t>aggrLevel</t>
   </si>
   <si>
-    <t>primaryValue</t>
-  </si>
-  <si>
-    <t>product_rank</t>
-  </si>
-  <si>
-    <t>product_perc</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>isLeaf</t>
+  </si>
+  <si>
+    <t>product_upper_sum</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>271011</t>
+  </si>
+  <si>
+    <t>100190</t>
+  </si>
+  <si>
+    <t>170111</t>
+  </si>
+  <si>
+    <t>100630</t>
+  </si>
+  <si>
+    <t>610990</t>
+  </si>
+  <si>
+    <t>610910</t>
+  </si>
+  <si>
+    <t>847989</t>
+  </si>
+  <si>
+    <t>270119</t>
+  </si>
+  <si>
+    <t>382490</t>
+  </si>
+  <si>
+    <t>720241</t>
+  </si>
+  <si>
+    <t>271019</t>
+  </si>
+  <si>
+    <t>271600</t>
+  </si>
+  <si>
+    <t>811100</t>
+  </si>
+  <si>
+    <t>270112</t>
+  </si>
+  <si>
+    <t>100199</t>
+  </si>
+  <si>
+    <t>271012</t>
+  </si>
+  <si>
+    <t>300490</t>
+  </si>
+  <si>
+    <t>281820</t>
+  </si>
+  <si>
+    <t>261000</t>
   </si>
   <si>
     <t>999999</t>
   </si>
   <si>
-    <t>271019</t>
-  </si>
-  <si>
-    <t>100630</t>
-  </si>
-  <si>
-    <t>271600</t>
-  </si>
-  <si>
-    <t>271011</t>
-  </si>
-  <si>
-    <t>870421</t>
-  </si>
-  <si>
-    <t>100190</t>
-  </si>
-  <si>
-    <t>760110</t>
-  </si>
-  <si>
-    <t>760410</t>
-  </si>
-  <si>
-    <t>902710</t>
-  </si>
-  <si>
-    <t>271113</t>
-  </si>
-  <si>
-    <t>890200</t>
-  </si>
-  <si>
-    <t>300490</t>
-  </si>
-  <si>
-    <t>282612</t>
-  </si>
-  <si>
-    <t>271012</t>
-  </si>
-  <si>
-    <t>890690</t>
-  </si>
-  <si>
-    <t>100199</t>
-  </si>
-  <si>
-    <t>151110</t>
-  </si>
-  <si>
-    <t>890590</t>
+    <t>260111</t>
+  </si>
+  <si>
+    <t>282200</t>
+  </si>
+  <si>
+    <t>890520</t>
+  </si>
+  <si>
+    <t>740311</t>
+  </si>
+  <si>
+    <t>Petroleum oils and oils from bituminous minerals, not crude or waste oils; preparations n.e.c. with 70% or more (weight),of petroleum oils or oils from bituminous minerals; being the basic constituents of the preparations: light oils and preparations</t>
+  </si>
+  <si>
+    <t>Cereals; meslin and wheat other than durum</t>
+  </si>
+  <si>
+    <t>Sugars; cane sugar, raw, in solid form, not containing added flavouring or colouring matter</t>
+  </si>
+  <si>
+    <t>Cereals; rice, semi-milled or wholly milled, whether or not polished or glazed</t>
+  </si>
+  <si>
+    <t>T-shirts, singlets and other vests; of textile materials (other than cotton), knitted or crocheted</t>
+  </si>
+  <si>
+    <t>T-shirts, singlets and other vests; of cotton, knitted or crocheted</t>
+  </si>
+  <si>
+    <t>Machines and mechanical appliances; n.e.s. in item no. 8479.8, having individual functions</t>
+  </si>
+  <si>
+    <t>Coal; (other than anthracite and bituminous), whether or not pulverised but not agglomerated</t>
+  </si>
+  <si>
+    <t>Chemical products, preparations and residual products of the chemical or allied industries, n.e.s. or included in heading no. 3824</t>
+  </si>
+  <si>
+    <t>Ferro-alloys; ferro-chromium, containing by weight more than 4% of carbon</t>
+  </si>
+  <si>
+    <t>Oils; petroleum oils and oils obtained from bituminous minerals, not crude; preparations n.e.c., containing by weight 70% or more of petroleum oils or oils obtained from bituminous minerals, (excluding waste oils), other than light oils and preparations</t>
+  </si>
+  <si>
+    <t>Electrical energy</t>
+  </si>
+  <si>
+    <t>Manganese; articles thereof, including waste and scrap</t>
+  </si>
+  <si>
+    <t>Petroleum oils and oils from bituminous minerals, not crude or waste oils; preparations n.e.c. with 70% or more (weight), of petroleum oils or oils from bituminous minerals; being the basic constituents of the preparations: light oils and preparations</t>
+  </si>
+  <si>
+    <t>Coal; bituminous, whether or not pulverised, but not agglomerated</t>
+  </si>
+  <si>
+    <t>Petroleum oils and oils from bituminous minerals, not containing biodiesel, not crude, not waste oils; preparations n.e.c, containing by weight 70% or more of petroleum oils or oils from bituminous minerals; not light oils and preparations</t>
+  </si>
+  <si>
+    <t>Cereals; wheat and meslin, other than durum wheat, other than seed</t>
+  </si>
+  <si>
+    <t>Petroleum oils and oils from bituminous minerals, not containing biodiesel, not crude, not waste oils; preparations n.e.c, containing by weight 70% or more of petroleum oils or oils from bituminous minerals; light oils and preparations</t>
+  </si>
+  <si>
+    <t>Medicaments; consisting of mixed or unmixed products n.e.c. in heading no. 3004, for therapeutic or prophylactic uses, packaged for retail sale</t>
+  </si>
+  <si>
+    <t>Aluminium oxide; other than artificial corundum</t>
+  </si>
+  <si>
+    <t>Chromium ores and concentrates</t>
   </si>
   <si>
     <t>Commodities not specified according to kind</t>
   </si>
   <si>
-    <t>Oils; petroleum oils and oils obtained from bituminous minerals, not crude; preparations n.e.c., containing by weight 70% or more of petroleum oils or oils obtained from bituminous minerals, (excluding waste oils), other than light oils and preparations</t>
-  </si>
-  <si>
-    <t>Cereals; rice, semi-milled or wholly milled, whether or not polished or glazed</t>
-  </si>
-  <si>
-    <t>Electrical energy</t>
-  </si>
-  <si>
-    <t>Petroleum oils and oils from bituminous minerals, not crude or waste oils; preparations n.e.c. with 70% or more (weight),of petroleum oils or oils from bituminous minerals; being the basic constituents of the preparations: light oils and preparations</t>
-  </si>
-  <si>
-    <t>Vehicles; compression-ignition internal combustion piston engine (diesel or semi-diesel), for transport of goods, (of a gvw not exceeding 5 tonnes), nes in item no 8704.1</t>
-  </si>
-  <si>
-    <t>Cereals; meslin and wheat other than durum</t>
-  </si>
-  <si>
-    <t>Aluminium; unwrought, (not alloyed)</t>
-  </si>
-  <si>
-    <t>Aluminium; (not alloyed), bars, rods and profiles</t>
-  </si>
-  <si>
-    <t>Petroleum oils and oils from bituminous minerals, not crude or waste oils; preparations n.e.c. with 70% or more (weight), of petroleum oils or oils from bituminous minerals; being the basic constituents of the preparations: light oils and preparations</t>
-  </si>
-  <si>
-    <t>Instruments and apparatus; gas or smoke analysis apparatus, for physical or chemical analysis</t>
-  </si>
-  <si>
-    <t>Petroleum gases and other gaseous hydrocarbons; liquefied, butanes</t>
-  </si>
-  <si>
-    <t>Vehicles; compression-ignition internal combustion piston engine (diesel or semi-diesel), for transport of goods, (of a gvw not exceeding 5 tonnes), n.e.c. in item no 8704.1</t>
-  </si>
-  <si>
-    <t>Fishing vessels, factory ships and other vessels; for processing or preserving fishery products</t>
-  </si>
-  <si>
-    <t>Medicaments; consisting of mixed or unmixed products n.e.c. in heading no. 3004, for therapeutic or prophylactic uses, packaged for retail sale</t>
-  </si>
-  <si>
-    <t>Fluorides; of aluminium</t>
-  </si>
-  <si>
-    <t>Petroleum oils and oils from bituminous minerals, not containing biodiesel, not crude, not waste oils; preparations n.e.c, containing by weight 70% or more of petroleum oils or oils from bituminous minerals; not light oils and preparations</t>
-  </si>
-  <si>
-    <t>Petroleum oils and oils from bituminous minerals, not containing biodiesel, not crude, not waste oils; preparations n.e.c, containing by weight 70% or more of petroleum oils or oils from bituminous minerals; light oils and preparations</t>
-  </si>
-  <si>
-    <t>Vessels; other, including lifeboats other than rowing boats, other than warships</t>
-  </si>
-  <si>
-    <t>Cereals; wheat and meslin, other than durum wheat, other than seed</t>
-  </si>
-  <si>
-    <t>Vegetable oils; palm oil and its fractions, crude, not chemically modified</t>
-  </si>
-  <si>
-    <t>Vessels; light, fire-floats, floating cranes and other vessels, the navigability of which is subsidiary to their main function, floating docks</t>
+    <t>Iron ores and concentrates; non-agglomerated</t>
+  </si>
+  <si>
+    <t>Cobalt oxides and hydroxides; commercial cobalt oxides</t>
+  </si>
+  <si>
+    <t>Floating or submersible drilling or production platforms</t>
+  </si>
+  <si>
+    <t>Copper; refined, unwrought, cathodes and sections of cathodes</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
     <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
   </si>
   <si>
     <t>H5</t>
@@ -536,13 +572,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,3050 +606,3686 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>2003</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>109614444.576</v>
       </c>
       <c r="G2">
-        <v>338413892</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <v>0.07100747592404481</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
       </c>
       <c r="I2">
-        <v>0.09652435403292901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1543702872.825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2003</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>54143060</v>
       </c>
       <c r="G3">
-        <v>173960109</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
+        <v>0.03507349824446292</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
       </c>
       <c r="I3">
-        <v>0.04961790146819067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1543702872.825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2003</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>48532555.645</v>
       </c>
       <c r="G4">
-        <v>58406080</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
+        <v>0.03143905248824515</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
       </c>
       <c r="I4">
-        <v>0.01665891760612349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1543702872.825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>34909727.189</v>
       </c>
       <c r="G5">
-        <v>49546846</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
+        <v>0.02261427882498829</v>
+      </c>
+      <c r="H5" t="s">
+        <v>62</v>
       </c>
       <c r="I5">
-        <v>0.01413203599963034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1543702872.825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2003</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>28352991.998</v>
       </c>
       <c r="G6">
-        <v>48259433</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
+        <v>0.01836687130478263</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
       </c>
       <c r="I6">
-        <v>0.01376483266922274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1543702872.825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2004</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>163212283.443</v>
       </c>
       <c r="G7">
-        <v>317480888</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>0.08582515608532534</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
       </c>
       <c r="I7">
-        <v>0.07801802166485644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1901683502.687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2004</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>82483178</v>
       </c>
       <c r="G8">
-        <v>168994617</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
+        <v>0.04337376744524243</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
       </c>
       <c r="I8">
-        <v>0.04152887996946171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1901683502.687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>81074258.215</v>
       </c>
       <c r="G9">
-        <v>82523791</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
+        <v>0.04263288717625485</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
       </c>
       <c r="I9">
-        <v>0.02027946612680535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1901683502.687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>2004</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>58425649</v>
       </c>
       <c r="G10">
-        <v>67492452</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
+        <v>0.03072311923485006</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
       </c>
       <c r="I10">
-        <v>0.01658565218058192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1901683502.687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2004</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>37066921</v>
       </c>
       <c r="G11">
-        <v>67010444</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
+        <v>0.01949163514729237</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
       </c>
       <c r="I11">
-        <v>0.01646720312740101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1901683502.687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2005</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>322649514.789</v>
       </c>
       <c r="G12">
-        <v>631617167</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+        <v>0.1444845894756511</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
       </c>
       <c r="I12">
-        <v>0.1311391077689769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2233106769.102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2005</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>107010433.504</v>
       </c>
       <c r="G13">
-        <v>108450206</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
+        <v>0.04791998080191757</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
       </c>
       <c r="I13">
-        <v>0.02251690421866216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2233106769.102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>2005</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>49650528</v>
       </c>
       <c r="G14">
-        <v>83479247</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
+        <v>0.02223383525005658</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
       </c>
       <c r="I14">
-        <v>0.01733232492841038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2233106769.102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2005</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>48100358.041</v>
       </c>
       <c r="G15">
-        <v>79773662</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
+        <v>0.02153965887638351</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
       </c>
       <c r="I15">
-        <v>0.01656295522782068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2233106769.102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>2005</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>29466904.72</v>
       </c>
       <c r="G16">
-        <v>49111721</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
+        <v>0.01319547507880671</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
       </c>
       <c r="I16">
-        <v>0.01019678946272042</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>2233106769.102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2006</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>183825941</v>
       </c>
       <c r="G17">
-        <v>572921199</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
+        <v>0.07652850704046645</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
       </c>
       <c r="I17">
-        <v>0.09983548118789129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2402058371.566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>2006</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>86070643</v>
       </c>
       <c r="G18">
-        <v>302220750</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
+        <v>0.03583203639796939</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
       </c>
       <c r="I18">
-        <v>0.05266405581409703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2402058371.566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>2006</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>80721500</v>
       </c>
       <c r="G19">
-        <v>94173790</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
+        <v>0.03360513672587163</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
       </c>
       <c r="I19">
-        <v>0.01641043420342598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2402058371.566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>2006</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>65239653.58</v>
       </c>
       <c r="G20">
-        <v>90723317</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
+        <v>0.02715989517668032</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
       </c>
       <c r="I20">
-        <v>0.01580916542007132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2402058371.566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>2006</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>53642691.098</v>
       </c>
       <c r="G21">
-        <v>83717902</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
+        <v>0.02233196817071025</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
       </c>
       <c r="I21">
-        <v>0.01458842340761548</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2402058371.566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>2007</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>425763169.97</v>
       </c>
       <c r="G22">
-        <v>550252913</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
+        <v>0.1266062784274113</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
       </c>
       <c r="I22">
-        <v>0.09021290474807171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>3362891439.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>2007</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>246357436.094</v>
       </c>
       <c r="G23">
-        <v>291558523</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
+        <v>0.07325762383105584</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
       </c>
       <c r="I23">
-        <v>0.04780045801209139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3362891439.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>2007</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>116979558.919</v>
       </c>
       <c r="G24">
-        <v>107412314</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
+        <v>0.03478541041456978</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
       </c>
       <c r="I24">
-        <v>0.01761004189659232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>3362891439.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>2007</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>98472657</v>
       </c>
       <c r="G25">
-        <v>106113876</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
+        <v>0.02928213971750407</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
       </c>
       <c r="I25">
-        <v>0.01739716548858451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>3362891439.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>2007</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>80342475</v>
       </c>
       <c r="G26">
-        <v>99135401</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
+        <v>0.02389089164315002</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
       </c>
       <c r="I26">
-        <v>0.01625305795986744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>3362891439.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>2008</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>323324053.31</v>
       </c>
       <c r="G27">
-        <v>674863799</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
+        <v>0.08176539769197128</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
       </c>
       <c r="I27">
-        <v>0.08419457050510951</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>3954289496.983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>2008</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>132989676.646</v>
       </c>
       <c r="G28">
-        <v>546918782</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
+        <v>0.03363175021643382</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
       </c>
       <c r="I28">
-        <v>0.0682324226309072</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>3954289496.983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>2008</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>113899688</v>
       </c>
       <c r="G29">
-        <v>132909032</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
+        <v>0.02880408429552311</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
       </c>
       <c r="I29">
-        <v>0.01658144781520553</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>3954289496.983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>2008</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>101242146</v>
       </c>
       <c r="G30">
-        <v>122085124</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
+        <v>0.025603119366259</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
       </c>
       <c r="I30">
-        <v>0.01523108010160586</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>3954289496.983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>2008</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>69989298.77500001</v>
       </c>
       <c r="G31">
-        <v>111685618</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
+        <v>0.01769958897253215</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
       </c>
       <c r="I31">
-        <v>0.01393365987780258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>3954289496.983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>2009</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>207996459.571</v>
       </c>
       <c r="G32">
-        <v>468279476</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
+        <v>0.0501145409349819</v>
+      </c>
+      <c r="H32" t="s">
+        <v>63</v>
       </c>
       <c r="I32">
-        <v>0.06220161680476338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>4150421328.629</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>2009</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>157716339.084</v>
       </c>
       <c r="G33">
-        <v>307621887</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
+        <v>0.03800007917174474</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
       </c>
       <c r="I33">
-        <v>0.04086145072890664</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>4150421328.629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>2009</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="D34" t="s">
-        <v>31</v>
-      </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>145859005.962</v>
       </c>
       <c r="G34">
-        <v>151079035</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
+        <v>0.03514318051420127</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
       </c>
       <c r="I34">
-        <v>0.02006784564332141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>4150421328.629</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>2009</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>112362692.358</v>
       </c>
       <c r="G35">
-        <v>137097135</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
+        <v>0.0270725990113193</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
       </c>
       <c r="I35">
-        <v>0.01821062825375869</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>4150421328.629</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>2009</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" t="s">
-        <v>32</v>
-      </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>95085952.42300001</v>
       </c>
       <c r="G36">
-        <v>127261337</v>
-      </c>
-      <c r="H36">
-        <v>5</v>
+        <v>0.02290995176010469</v>
+      </c>
+      <c r="H36" t="s">
+        <v>63</v>
       </c>
       <c r="I36">
-        <v>0.01690413807103486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>4150421328.629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>2010</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F37">
-        <v>6</v>
+        <v>322274330.263</v>
       </c>
       <c r="G37">
-        <v>617198728</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
+        <v>0.06566184216901912</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
       </c>
       <c r="I37">
-        <v>0.08658234891489751</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>4908091512.776</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>2010</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>204973605.751</v>
       </c>
       <c r="G38">
-        <v>382230097</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
+        <v>0.04176238466977312</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
       </c>
       <c r="I38">
-        <v>0.05362029784388849</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>4908091512.776</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>2010</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>140672759.98</v>
       </c>
       <c r="G39">
-        <v>157426584</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
+        <v>0.0286613971263213</v>
+      </c>
+      <c r="H39" t="s">
+        <v>63</v>
       </c>
       <c r="I39">
-        <v>0.0220842377114692</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>4908091512.776</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>2010</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>130703563.13</v>
       </c>
       <c r="G40">
-        <v>137765209</v>
-      </c>
-      <c r="H40">
-        <v>4</v>
+        <v>0.02663022129676521</v>
+      </c>
+      <c r="H40" t="s">
+        <v>63</v>
       </c>
       <c r="I40">
-        <v>0.01932608550996848</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>4908091512.776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>2010</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>120407022.37</v>
       </c>
       <c r="G41">
-        <v>105573035</v>
-      </c>
-      <c r="H41">
-        <v>5</v>
+        <v>0.02453235072259241</v>
+      </c>
+      <c r="H41" t="s">
+        <v>63</v>
       </c>
       <c r="I41">
-        <v>0.01481007807970513</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>4908091512.776</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>2011</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>367574428.232</v>
       </c>
       <c r="G42">
-        <v>861190000</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
+        <v>0.05434583940221511</v>
+      </c>
+      <c r="H42" t="s">
+        <v>62</v>
       </c>
       <c r="I42">
-        <v>0.06828720351773578</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>6763616723.473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>2011</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>231741574.721</v>
       </c>
       <c r="G43">
-        <v>601401000</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
+        <v>0.03426296672263308</v>
+      </c>
+      <c r="H43" t="s">
+        <v>63</v>
       </c>
       <c r="I43">
-        <v>0.0476874934483329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>6763616723.473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>2011</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>206220230.059</v>
       </c>
       <c r="G44">
-        <v>314163000</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
+        <v>0.03048963867856626</v>
+      </c>
+      <c r="H44" t="s">
+        <v>63</v>
       </c>
       <c r="I44">
-        <v>0.02491124225634578</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>6763616723.473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>2011</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>202629805.185</v>
       </c>
       <c r="G45">
-        <v>235679000</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
+        <v>0.0299587947498233</v>
+      </c>
+      <c r="H45" t="s">
+        <v>63</v>
       </c>
       <c r="I45">
-        <v>0.01868793162700037</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>6763616723.473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>2011</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>177936376.129</v>
       </c>
       <c r="G46">
-        <v>144755000</v>
-      </c>
-      <c r="H46">
-        <v>5</v>
+        <v>0.02630787393843227</v>
+      </c>
+      <c r="H46" t="s">
+        <v>63</v>
       </c>
       <c r="I46">
-        <v>0.0114782035848185</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>6763616723.473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>2012</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>550404808.822</v>
       </c>
       <c r="G47">
-        <v>885136340</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
+        <v>0.07247930881891784</v>
+      </c>
+      <c r="H47" t="s">
+        <v>64</v>
       </c>
       <c r="I47">
-        <v>0.07164532096876076</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>7593957748.647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>2012</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>225480855.451</v>
       </c>
       <c r="G48">
-        <v>306310370</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
+        <v>0.02969213984515169</v>
+      </c>
+      <c r="H48" t="s">
+        <v>64</v>
       </c>
       <c r="I48">
-        <v>0.02479358691194384</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>7593957748.647</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>2012</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>220384191.728</v>
       </c>
       <c r="G49">
-        <v>295300017</v>
-      </c>
-      <c r="H49">
-        <v>3</v>
+        <v>0.02902099261314239</v>
+      </c>
+      <c r="H49" t="s">
+        <v>64</v>
       </c>
       <c r="I49">
-        <v>0.02390237926514859</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>7593957748.647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>2012</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>151117473.483</v>
       </c>
       <c r="G50">
-        <v>266406460</v>
-      </c>
-      <c r="H50">
-        <v>4</v>
+        <v>0.01989969900871838</v>
+      </c>
+      <c r="H50" t="s">
+        <v>62</v>
       </c>
       <c r="I50">
-        <v>0.02156365688799007</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>7593957748.647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>2012</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
         <v>52</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>149337334.24</v>
       </c>
       <c r="G51">
-        <v>249445030</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
+        <v>0.01966528379310606</v>
+      </c>
+      <c r="H51" t="s">
+        <v>64</v>
       </c>
       <c r="I51">
-        <v>0.02019075302954137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>7593957748.647</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>2013</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>1651824237.18</v>
       </c>
       <c r="G52">
-        <v>1591705391</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
+        <v>0.1619019280677072</v>
+      </c>
+      <c r="H52" t="s">
+        <v>64</v>
       </c>
       <c r="I52">
-        <v>0.07880395058688432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>10202622395.511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>2013</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>771199934.3970001</v>
       </c>
       <c r="G53">
-        <v>969989280</v>
-      </c>
-      <c r="H53">
-        <v>2</v>
+        <v>0.07558840310862788</v>
+      </c>
+      <c r="H53" t="s">
+        <v>64</v>
       </c>
       <c r="I53">
-        <v>0.04802332625317313</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>10202622395.511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>2013</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>274351364.253</v>
       </c>
       <c r="G54">
-        <v>570175455</v>
-      </c>
-      <c r="H54">
-        <v>3</v>
+        <v>0.02689027914761508</v>
+      </c>
+      <c r="H54" t="s">
+        <v>64</v>
       </c>
       <c r="I54">
-        <v>0.02822889124817589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>10202622395.511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>2013</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>232339409.224</v>
       </c>
       <c r="G55">
-        <v>488136060</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
+        <v>0.02277251869345139</v>
+      </c>
+      <c r="H55" t="s">
+        <v>62</v>
       </c>
       <c r="I55">
-        <v>0.02416719210063692</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>10202622395.511</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>2013</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
         <v>52</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>214498716.065</v>
       </c>
       <c r="G56">
-        <v>470095440</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
+        <v>0.02102388069947352</v>
+      </c>
+      <c r="H56" t="s">
+        <v>64</v>
       </c>
       <c r="I56">
-        <v>0.02327401668320394</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>10202622395.511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>2014</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>1734718010.083</v>
       </c>
       <c r="G57">
-        <v>1033946417</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
+        <v>0.1461803853084069</v>
+      </c>
+      <c r="H57" t="s">
+        <v>64</v>
       </c>
       <c r="I57">
-        <v>0.05912945414684485</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>11866968378.987</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>2014</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>716924276.369</v>
       </c>
       <c r="G58">
-        <v>528996210</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
+        <v>0.06041343108644896</v>
+      </c>
+      <c r="H58" t="s">
+        <v>64</v>
       </c>
       <c r="I58">
-        <v>0.03025229995361521</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>11866968378.987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>2014</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>405663609.475</v>
       </c>
       <c r="G59">
-        <v>312329740</v>
-      </c>
-      <c r="H59">
-        <v>3</v>
+        <v>0.03418426648825609</v>
+      </c>
+      <c r="H59" t="s">
+        <v>64</v>
       </c>
       <c r="I59">
-        <v>0.01786155136898741</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>11866968378.987</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>2014</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>312261341.691</v>
       </c>
       <c r="G60">
-        <v>269672130</v>
-      </c>
-      <c r="H60">
-        <v>4</v>
+        <v>0.026313488982066</v>
+      </c>
+      <c r="H60" t="s">
+        <v>64</v>
       </c>
       <c r="I60">
-        <v>0.01542204275128987</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>11866968378.987</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>2014</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>15</v>
       </c>
-      <c r="D61" t="s">
-        <v>41</v>
-      </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>250760250.879</v>
       </c>
       <c r="G61">
-        <v>242592350</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
+        <v>0.02113094455724889</v>
+      </c>
+      <c r="H61" t="s">
+        <v>64</v>
       </c>
       <c r="I61">
-        <v>0.01387340098079796</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>11866968378.987</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>2015</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>1024315477.369</v>
       </c>
       <c r="G62">
-        <v>10189.16</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
+        <v>0.1096586434161982</v>
+      </c>
+      <c r="H62" t="s">
+        <v>64</v>
       </c>
       <c r="I62">
-        <v>6.442619856994512E-07</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>9340946098.351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>2015</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>308539887.536</v>
       </c>
       <c r="G63">
-        <v>3798.34</v>
-      </c>
-      <c r="H63">
-        <v>2</v>
+        <v>0.03303090332471439</v>
+      </c>
+      <c r="H63" t="s">
+        <v>64</v>
       </c>
       <c r="I63">
-        <v>2.401695596851609E-07</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>9340946098.351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>2015</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>225085319.232</v>
       </c>
       <c r="G64">
-        <v>469081526.38</v>
-      </c>
-      <c r="H64">
-        <v>3</v>
+        <v>0.02409662970560716</v>
+      </c>
+      <c r="H64" t="s">
+        <v>64</v>
       </c>
       <c r="I64">
-        <v>0.02966008931457631</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>9340946098.351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>2015</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>218393638.01</v>
       </c>
       <c r="G65">
-        <v>108933.01</v>
-      </c>
-      <c r="H65">
-        <v>4</v>
+        <v>0.02338024817941665</v>
+      </c>
+      <c r="H65" t="s">
+        <v>64</v>
       </c>
       <c r="I65">
-        <v>6.887849178030198E-06</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>9340946098.351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>2015</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>193080827.52</v>
       </c>
       <c r="G66">
-        <v>53447.29</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
+        <v>0.02067037166118381</v>
+      </c>
+      <c r="H66" t="s">
+        <v>64</v>
       </c>
       <c r="I66">
-        <v>3.379479484634104E-06</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>9340946098.351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>2016</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>639524238.784</v>
       </c>
       <c r="G67">
-        <v>525434517.01</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
+        <v>0.08650852434101053</v>
+      </c>
+      <c r="H67" t="s">
+        <v>64</v>
       </c>
       <c r="I67">
-        <v>0.04961317293864703</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>7392615278.733</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>2016</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>293061566.395</v>
       </c>
       <c r="G68">
-        <v>193538147.4</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
+        <v>0.03964247500313949</v>
+      </c>
+      <c r="H68" t="s">
+        <v>64</v>
       </c>
       <c r="I68">
-        <v>0.01827447810589652</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>7392615278.733</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>2016</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>256040175.659</v>
       </c>
       <c r="G69">
-        <v>162787797.34</v>
-      </c>
-      <c r="H69">
-        <v>3</v>
+        <v>0.03463458681470599</v>
+      </c>
+      <c r="H69" t="s">
+        <v>64</v>
       </c>
       <c r="I69">
-        <v>0.01537093373250379</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>7392615278.733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>2016</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>243072852.205</v>
       </c>
       <c r="G70">
-        <v>158328387.86</v>
-      </c>
-      <c r="H70">
-        <v>4</v>
+        <v>0.03288049533759311</v>
+      </c>
+      <c r="H70" t="s">
+        <v>64</v>
       </c>
       <c r="I70">
-        <v>0.01494986232098997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>7392615278.733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>2016</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>23</v>
       </c>
-      <c r="D71" t="s">
-        <v>44</v>
-      </c>
       <c r="E71" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>227535950.954</v>
       </c>
       <c r="G71">
-        <v>140607891.32</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
+        <v>0.03077881674819101</v>
+      </c>
+      <c r="H71" t="s">
+        <v>64</v>
       </c>
       <c r="I71">
-        <v>0.0132766375309616</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>7392615278.733</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>2017</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>808530417.9039999</v>
       </c>
       <c r="G72">
-        <v>672914233.057</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
+        <v>0.0934925604815604</v>
+      </c>
+      <c r="H72" t="s">
+        <v>65</v>
       </c>
       <c r="I72">
-        <v>0.05860237974054015</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>8648072250.235001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>2017</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>563457982.837</v>
       </c>
       <c r="G73">
-        <v>472895591.188</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
+        <v>0.06515417153478208</v>
+      </c>
+      <c r="H73" t="s">
+        <v>65</v>
       </c>
       <c r="I73">
-        <v>0.04118326771976446</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>8648072250.235001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>2017</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E74" t="s">
         <v>53</v>
       </c>
       <c r="F74">
-        <v>6</v>
+        <v>458570622.469</v>
       </c>
       <c r="G74">
-        <v>269056110.09</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
+        <v>0.05302576218145482</v>
+      </c>
+      <c r="H74" t="s">
+        <v>65</v>
       </c>
       <c r="I74">
-        <v>0.02343140858141303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>8648072250.235001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>2017</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>375534901.605</v>
       </c>
       <c r="G75">
-        <v>256522411.264</v>
-      </c>
-      <c r="H75">
-        <v>4</v>
+        <v>0.04342411704467378</v>
+      </c>
+      <c r="H75" t="s">
+        <v>65</v>
       </c>
       <c r="I75">
-        <v>0.02233988080257855</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>8648072250.235001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>2017</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
       </c>
       <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
         <v>47</v>
       </c>
-      <c r="E76" t="s">
-        <v>53</v>
-      </c>
       <c r="F76">
-        <v>6</v>
+        <v>269642681.641</v>
       </c>
       <c r="G76">
-        <v>210121798.438</v>
-      </c>
-      <c r="H76">
-        <v>5</v>
+        <v>0.03117951305664367</v>
+      </c>
+      <c r="H76" t="s">
+        <v>64</v>
       </c>
       <c r="I76">
-        <v>0.0182989700899756</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>8648072250.235001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>2018</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>711814510.4859999</v>
       </c>
       <c r="G77">
-        <v>827562273.4960001</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
+        <v>0.07149577460324646</v>
+      </c>
+      <c r="H77" t="s">
+        <v>65</v>
       </c>
       <c r="I77">
-        <v>0.05353129785042077</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>9956036065.573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>2018</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>606087283.165</v>
       </c>
       <c r="G78">
-        <v>476381140.141</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
+        <v>0.06087636476737871</v>
+      </c>
+      <c r="H78" t="s">
+        <v>65</v>
       </c>
       <c r="I78">
-        <v>0.03081496283715519</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>9956036065.573</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>2018</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>505411064.267</v>
       </c>
       <c r="G79">
-        <v>475932614.74</v>
-      </c>
-      <c r="H79">
-        <v>3</v>
+        <v>0.05076428620168041</v>
+      </c>
+      <c r="H79" t="s">
+        <v>65</v>
       </c>
       <c r="I79">
-        <v>0.03078594973735187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>9956036065.573</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>2018</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E80" t="s">
         <v>53</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>297115404.48</v>
       </c>
       <c r="G80">
-        <v>241851874.067</v>
-      </c>
-      <c r="H80">
-        <v>4</v>
+        <v>0.0298427408783096</v>
+      </c>
+      <c r="H80" t="s">
+        <v>65</v>
       </c>
       <c r="I80">
-        <v>0.0156443147796848</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>9956036065.573</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>2018</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
       </c>
       <c r="D81" t="s">
         <v>31</v>
       </c>
       <c r="E81" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>292278829.451</v>
       </c>
       <c r="G81">
-        <v>218571283.361</v>
-      </c>
-      <c r="H81">
-        <v>5</v>
+        <v>0.02935694763718983</v>
+      </c>
+      <c r="H81" t="s">
+        <v>65</v>
       </c>
       <c r="I81">
-        <v>0.01413839761172119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>9956036065.573</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>2019</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>2091923015.03</v>
       </c>
       <c r="G82">
-        <v>907554341.529</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
+        <v>0.1697982877065334</v>
+      </c>
+      <c r="H82" t="s">
+        <v>65</v>
       </c>
       <c r="I82">
-        <v>0.0589403257978925</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>12320047765.414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>2019</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E83" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>573562037.959</v>
       </c>
       <c r="G83">
-        <v>239481882.228</v>
-      </c>
-      <c r="H83">
-        <v>2</v>
+        <v>0.04655517972658819</v>
+      </c>
+      <c r="H83" t="s">
+        <v>65</v>
       </c>
       <c r="I83">
-        <v>0.01555294213835217</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>12320047765.414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>2019</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E84" t="s">
         <v>53</v>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>445955672.883</v>
       </c>
       <c r="G84">
-        <v>219991993.109</v>
-      </c>
-      <c r="H84">
-        <v>3</v>
+        <v>0.03619756038080704</v>
+      </c>
+      <c r="H84" t="s">
+        <v>65</v>
       </c>
       <c r="I84">
-        <v>0.01428718827450825</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>12320047765.414</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>2019</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E85" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>390198981.523</v>
       </c>
       <c r="G85">
-        <v>197502517.608</v>
-      </c>
-      <c r="H85">
-        <v>4</v>
+        <v>0.03167187245965096</v>
+      </c>
+      <c r="H85" t="s">
+        <v>65</v>
       </c>
       <c r="I85">
-        <v>0.01282662888715579</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>12320047765.414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>2019</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>342535932.528</v>
       </c>
       <c r="G86">
-        <v>171559893.545</v>
-      </c>
-      <c r="H86">
-        <v>5</v>
+        <v>0.02780313348212814</v>
+      </c>
+      <c r="H86" t="s">
+        <v>65</v>
       </c>
       <c r="I86">
-        <v>0.01114180777578368</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>12320047765.414</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>2020</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E87" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>1292022666.316</v>
       </c>
       <c r="G87">
-        <v>467906176.385</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
+        <v>0.1175196838987725</v>
+      </c>
+      <c r="H87" t="s">
+        <v>65</v>
       </c>
       <c r="I87">
-        <v>0.03591495106372466</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>10994095826.78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>2020</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>505092177.532</v>
       </c>
       <c r="G88">
-        <v>247402997.382</v>
-      </c>
-      <c r="H88">
-        <v>2</v>
+        <v>0.04594212980222255</v>
+      </c>
+      <c r="H88" t="s">
+        <v>64</v>
       </c>
       <c r="I88">
-        <v>0.01898984666678612</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>10994095826.78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>2020</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E89" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>413148586.431</v>
       </c>
       <c r="G89">
-        <v>225953089.711</v>
-      </c>
-      <c r="H89">
-        <v>3</v>
+        <v>0.03757913274001404</v>
+      </c>
+      <c r="H89" t="s">
+        <v>65</v>
       </c>
       <c r="I89">
-        <v>0.01734342175682404</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>10994095826.78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>2020</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F90">
-        <v>6</v>
+        <v>385636477.448</v>
       </c>
       <c r="G90">
-        <v>207023811.697</v>
-      </c>
-      <c r="H90">
-        <v>4</v>
+        <v>0.03507668875403525</v>
+      </c>
+      <c r="H90" t="s">
+        <v>65</v>
       </c>
       <c r="I90">
-        <v>0.01589047215313027</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J90" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>10994095826.78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>2020</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F91">
-        <v>6</v>
+        <v>256224904.34</v>
       </c>
       <c r="G91">
-        <v>205864938.558</v>
-      </c>
-      <c r="H91">
-        <v>5</v>
+        <v>0.02330568228411051</v>
+      </c>
+      <c r="H91" t="s">
+        <v>65</v>
       </c>
       <c r="I91">
-        <v>0.01580152083302202</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>10994095826.78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>2021</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E92" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>2498687765.615</v>
       </c>
       <c r="G92">
-        <v>815253425.2359999</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
+        <v>0.1450216362513663</v>
+      </c>
+      <c r="H92" t="s">
+        <v>65</v>
       </c>
       <c r="I92">
-        <v>0.04654290942726951</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>17229758470.55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>2021</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>1617595031.945</v>
       </c>
       <c r="G93">
-        <v>373789973.804</v>
-      </c>
-      <c r="H93">
-        <v>2</v>
+        <v>0.093883790345052</v>
+      </c>
+      <c r="H93" t="s">
+        <v>65</v>
       </c>
       <c r="I93">
-        <v>0.02133971150203367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J93" t="b">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>17229758470.55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>2021</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E94" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F94">
-        <v>6</v>
+        <v>972852343.5450001</v>
       </c>
       <c r="G94">
-        <v>282137338.247</v>
-      </c>
-      <c r="H94">
-        <v>3</v>
+        <v>0.05646349281145467</v>
+      </c>
+      <c r="H94" t="s">
+        <v>65</v>
       </c>
       <c r="I94">
-        <v>0.01610725226487667</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J94" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>17229758470.55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>2021</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>641660694.5949999</v>
       </c>
       <c r="G95">
-        <v>279311584.856</v>
-      </c>
-      <c r="H95">
-        <v>4</v>
+        <v>0.03724142132878762</v>
+      </c>
+      <c r="H95" t="s">
+        <v>65</v>
       </c>
       <c r="I95">
-        <v>0.01594592968704998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>17229758470.55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>2021</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>624831789.715</v>
       </c>
       <c r="G96">
-        <v>274299664.583</v>
-      </c>
-      <c r="H96">
-        <v>5</v>
+        <v>0.03626468651797964</v>
+      </c>
+      <c r="H96" t="s">
+        <v>64</v>
       </c>
       <c r="I96">
-        <v>0.0156597985968857</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>17229758470.55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>2022</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>2489182702.153</v>
       </c>
       <c r="G97">
-        <v>4666447242.48</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
+        <v>0.1371928782321111</v>
+      </c>
+      <c r="H97" t="s">
+        <v>66</v>
       </c>
       <c r="I97">
-        <v>0.1590366046227082</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>18143672865.742</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>2022</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
       </c>
       <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
         <v>45</v>
       </c>
-      <c r="E98" t="s">
-        <v>53</v>
-      </c>
       <c r="F98">
-        <v>6</v>
+        <v>1034480641.081</v>
       </c>
       <c r="G98">
-        <v>1838146154.164</v>
-      </c>
-      <c r="H98">
-        <v>2</v>
+        <v>0.05701605450758848</v>
+      </c>
+      <c r="H98" t="s">
+        <v>66</v>
       </c>
       <c r="I98">
-        <v>0.06264562909815963</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>18143672865.742</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>2022</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F99">
-        <v>6</v>
+        <v>999395519.365</v>
       </c>
       <c r="G99">
-        <v>512525244.062</v>
-      </c>
-      <c r="H99">
-        <v>3</v>
+        <v>0.05508231584421972</v>
+      </c>
+      <c r="H99" t="s">
+        <v>66</v>
       </c>
       <c r="I99">
-        <v>0.01746730871765442</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>18143672865.742</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>2022</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>699990845.58</v>
       </c>
       <c r="G100">
-        <v>433289716.157</v>
-      </c>
-      <c r="H100">
-        <v>4</v>
+        <v>0.03858043797194385</v>
+      </c>
+      <c r="H100" t="s">
+        <v>64</v>
       </c>
       <c r="I100">
-        <v>0.01476689260477408</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>18143672865.742</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>2022</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E101" t="s">
         <v>53</v>
       </c>
       <c r="F101">
-        <v>6</v>
+        <v>681413298.168</v>
       </c>
       <c r="G101">
-        <v>315775369.809</v>
-      </c>
-      <c r="H101">
-        <v>5</v>
+        <v>0.03755652470204152</v>
+      </c>
+      <c r="H101" t="s">
+        <v>66</v>
       </c>
       <c r="I101">
-        <v>0.01076190086983902</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J101" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>18143672865.742</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>2023</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s">
-        <v>11</v>
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>1770936438.949</v>
       </c>
       <c r="G102">
-        <v>1258695000</v>
-      </c>
-      <c r="H102">
-        <v>1</v>
+        <v>0.0947108304915696</v>
+      </c>
+      <c r="H102" t="s">
+        <v>66</v>
       </c>
       <c r="I102">
-        <v>0.0623619369009834</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>18698351917.7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>2023</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>1692727380.663</v>
       </c>
       <c r="G103">
-        <v>392034000</v>
-      </c>
-      <c r="H103">
-        <v>2</v>
+        <v>0.09052815927914222</v>
+      </c>
+      <c r="H103" t="s">
+        <v>66</v>
       </c>
       <c r="I103">
-        <v>0.01942329124294617</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>18698351917.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>2023</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>1057373684.833</v>
       </c>
       <c r="G104">
-        <v>380475000</v>
-      </c>
-      <c r="H104">
-        <v>3</v>
+        <v>0.0565490311385188</v>
+      </c>
+      <c r="H104" t="s">
+        <v>66</v>
       </c>
       <c r="I104">
-        <v>0.01885060156940455</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>18698351917.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>2023</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
       </c>
       <c r="D105" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F105">
-        <v>6</v>
+        <v>943047871.193</v>
       </c>
       <c r="G105">
-        <v>347989000</v>
-      </c>
-      <c r="H105">
-        <v>4</v>
+        <v>0.05043481240185151</v>
+      </c>
+      <c r="H105" t="s">
+        <v>64</v>
       </c>
       <c r="I105">
-        <v>0.01724108545774497</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J105" t="b">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>18698351917.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>2023</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>739174797.365</v>
       </c>
       <c r="G106">
-        <v>255296000</v>
-      </c>
-      <c r="H106">
-        <v>5</v>
+        <v>0.03953154805399141</v>
+      </c>
+      <c r="H106" t="s">
+        <v>66</v>
       </c>
       <c r="I106">
-        <v>0.01264861864317683</v>
+        <v>6</v>
+      </c>
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>18698351917.7</v>
       </c>
     </row>
   </sheetData>
